--- a/Mathematical Model/Scarcity Model/parameters_w_50/a_alpha/nonEmpty_diff_a_alpha1_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a_alpha/nonEmpty_diff_a_alpha1_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5230769230769231</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="C3">
-        <v>0.5045871559633027</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="D3">
-        <v>0.5357142857142857</v>
+        <v>0.5323076923076923</v>
       </c>
       <c r="E3">
-        <v>0.5109649122807017</v>
+        <v>0.5109170305676856</v>
       </c>
       <c r="F3">
-        <v>0.4984025559105431</v>
+        <v>0.5126582278481012</v>
       </c>
       <c r="G3">
-        <v>0.510593220338983</v>
+        <v>0.5010482180293501</v>
       </c>
       <c r="H3">
-        <v>0.496</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5495495495495496</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C4">
-        <v>0.506265664160401</v>
+        <v>0.5060532687651331</v>
       </c>
       <c r="D4">
-        <v>0.5258964143426295</v>
+        <v>0.5278810408921933</v>
       </c>
       <c r="E4">
-        <v>0.4974533106960951</v>
+        <v>0.4991273996509599</v>
       </c>
       <c r="F4">
-        <v>0.5357142857142857</v>
+        <v>0.5260869565217391</v>
       </c>
       <c r="G4">
-        <v>0.5024232633279483</v>
+        <v>0.4968051118210863</v>
       </c>
       <c r="H4">
-        <v>0.494</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5912408759124088</v>
+        <v>0.5289855072463768</v>
       </c>
       <c r="C5">
-        <v>0.5117493472584856</v>
+        <v>0.5209876543209877</v>
       </c>
       <c r="D5">
-        <v>0.5442477876106194</v>
+        <v>0.5592417061611374</v>
       </c>
       <c r="E5">
-        <v>0.4905063291139241</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="F5">
-        <v>0.5159574468085106</v>
+        <v>0.5388888888888889</v>
       </c>
       <c r="G5">
-        <v>0.4949784791965567</v>
+        <v>0.4886039886039886</v>
       </c>
       <c r="H5">
-        <v>0.482</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5806451612903226</v>
+        <v>0.569620253164557</v>
       </c>
       <c r="C6">
-        <v>0.4923076923076923</v>
+        <v>0.5024752475247525</v>
       </c>
       <c r="D6">
-        <v>0.5362318840579711</v>
+        <v>0.5329949238578681</v>
       </c>
       <c r="E6">
-        <v>0.4947049924357035</v>
+        <v>0.4940652818991098</v>
       </c>
       <c r="F6">
-        <v>0.5581395348837209</v>
+        <v>0.5149700598802395</v>
       </c>
       <c r="G6">
-        <v>0.4993103448275862</v>
+        <v>0.4884353741496599</v>
       </c>
       <c r="H6">
-        <v>0.472</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5833333333333334</v>
+        <v>0.562874251497006</v>
       </c>
       <c r="C7">
-        <v>0.5025252525252525</v>
+        <v>0.5059665871121718</v>
       </c>
       <c r="D7">
-        <v>0.5520833333333334</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="E7">
-        <v>0.4918518518518519</v>
+        <v>0.5108853410740203</v>
       </c>
       <c r="F7">
-        <v>0.5256410256410257</v>
+        <v>0.5493827160493827</v>
       </c>
       <c r="G7">
-        <v>0.4910836762688615</v>
+        <v>0.4959459459459459</v>
       </c>
       <c r="H7">
-        <v>0.464</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6025641025641025</v>
+        <v>0.5480225988700564</v>
       </c>
       <c r="C8">
-        <v>0.4926829268292683</v>
+        <v>0.5046511627906977</v>
       </c>
       <c r="D8">
-        <v>0.5210526315789473</v>
+        <v>0.5027322404371585</v>
       </c>
       <c r="E8">
-        <v>0.4889543446244477</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="F8">
-        <v>0.4864864864864865</v>
+        <v>0.5174825174825175</v>
       </c>
       <c r="G8">
-        <v>0.4815825375170532</v>
+        <v>0.4986338797814208</v>
       </c>
       <c r="H8">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5588235294117647</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="C9">
-        <v>0.5088105726872246</v>
+        <v>0.5316742081447964</v>
       </c>
       <c r="D9">
-        <v>0.5684210526315789</v>
+        <v>0.5247524752475248</v>
       </c>
       <c r="E9">
-        <v>0.4926686217008798</v>
+        <v>0.5117647058823529</v>
       </c>
       <c r="F9">
-        <v>0.4779874213836478</v>
+        <v>0.5214723926380368</v>
       </c>
       <c r="G9">
-        <v>0.4879679144385027</v>
+        <v>0.4919354838709677</v>
       </c>
       <c r="H9">
-        <v>0.454</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5444444444444444</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="C10">
-        <v>0.5324675324675324</v>
+        <v>0.4968287526427062</v>
       </c>
       <c r="D10">
-        <v>0.5028248587570622</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="E10">
-        <v>0.4845814977973568</v>
+        <v>0.5074183976261127</v>
       </c>
       <c r="F10">
-        <v>0.4606060606060606</v>
+        <v>0.5414012738853503</v>
       </c>
       <c r="G10">
-        <v>0.4891304347826087</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="H10">
-        <v>0.44</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5769230769230769</v>
+        <v>0.5854922279792746</v>
       </c>
       <c r="C11">
-        <v>0.5284210526315789</v>
+        <v>0.5085106382978724</v>
       </c>
       <c r="D11">
-        <v>0.4705882352941176</v>
+        <v>0.4766839378238342</v>
       </c>
       <c r="E11">
-        <v>0.4927113702623906</v>
+        <v>0.5182370820668692</v>
       </c>
       <c r="F11">
-        <v>0.4219653179190752</v>
+        <v>0.5123456790123457</v>
       </c>
       <c r="G11">
-        <v>0.4917127071823205</v>
+        <v>0.4808219178082192</v>
       </c>
       <c r="H11">
-        <v>0.434</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6084656084656085</v>
+        <v>0.5906735751295337</v>
       </c>
       <c r="C12">
-        <v>0.5182186234817814</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="D12">
-        <v>0.5161290322580645</v>
+        <v>0.4797979797979798</v>
       </c>
       <c r="E12">
-        <v>0.4977973568281938</v>
+        <v>0.5105421686746988</v>
       </c>
       <c r="F12">
-        <v>0.4358974358974359</v>
+        <v>0.4628571428571429</v>
       </c>
       <c r="G12">
-        <v>0.5014005602240896</v>
+        <v>0.4853556485355648</v>
       </c>
       <c r="H12">
-        <v>0.426</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.583732057416268</v>
+        <v>0.569377990430622</v>
       </c>
       <c r="C13">
-        <v>0.5137254901960784</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="D13">
-        <v>0.4895833333333333</v>
+        <v>0.5181347150259067</v>
       </c>
       <c r="E13">
-        <v>0.4896449704142012</v>
+        <v>0.5075757575757576</v>
       </c>
       <c r="F13">
-        <v>0.4634146341463415</v>
+        <v>0.4906832298136646</v>
       </c>
       <c r="G13">
-        <v>0.4917582417582417</v>
+        <v>0.4893917963224894</v>
       </c>
       <c r="H13">
-        <v>0.432</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5876777251184834</v>
+        <v>0.5888324873096447</v>
       </c>
       <c r="C14">
-        <v>0.5172413793103449</v>
+        <v>0.5268199233716475</v>
       </c>
       <c r="D14">
-        <v>0.4666666666666667</v>
+        <v>0.5369458128078818</v>
       </c>
       <c r="E14">
-        <v>0.4926686217008798</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="F14">
-        <v>0.5059523809523809</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="G14">
-        <v>0.4870395634379263</v>
+        <v>0.4714881780250348</v>
       </c>
       <c r="H14">
-        <v>0.426</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5767195767195767</v>
+        <v>0.587378640776699</v>
       </c>
       <c r="C15">
-        <v>0.5244122965641953</v>
+        <v>0.5150976909413855</v>
       </c>
       <c r="D15">
-        <v>0.5076923076923077</v>
+        <v>0.4928229665071771</v>
       </c>
       <c r="E15">
-        <v>0.5066666666666667</v>
+        <v>0.4917787742899851</v>
       </c>
       <c r="F15">
-        <v>0.4585987261146497</v>
+        <v>0.4730538922155689</v>
       </c>
       <c r="G15">
-        <v>0.4760601915184678</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="H15">
-        <v>0.428</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5869565217391305</v>
+        <v>0.5981308411214953</v>
       </c>
       <c r="C16">
-        <v>0.5238879736408567</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="D16">
-        <v>0.494949494949495</v>
+        <v>0.541871921182266</v>
       </c>
       <c r="E16">
-        <v>0.4963503649635037</v>
+        <v>0.4894894894894895</v>
       </c>
       <c r="F16">
-        <v>0.3836477987421384</v>
+        <v>0.4939024390243902</v>
       </c>
       <c r="G16">
-        <v>0.476319350473613</v>
+        <v>0.473972602739726</v>
       </c>
       <c r="H16">
-        <v>0.434</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5621621621621622</v>
+        <v>0.5913461538461539</v>
       </c>
       <c r="C17">
-        <v>0.5229793977812995</v>
+        <v>0.5074875207986689</v>
       </c>
       <c r="D17">
-        <v>0.5193370165745856</v>
+        <v>0.5528846153846154</v>
       </c>
       <c r="E17">
-        <v>0.4955882352941177</v>
+        <v>0.477037037037037</v>
       </c>
       <c r="F17">
-        <v>0.4551282051282051</v>
+        <v>0.515527950310559</v>
       </c>
       <c r="G17">
-        <v>0.4863760217983651</v>
+        <v>0.477027027027027</v>
       </c>
       <c r="H17">
-        <v>0.436</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6182795698924731</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C18">
-        <v>0.5297805642633229</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="D18">
-        <v>0.478021978021978</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="E18">
-        <v>0.4911504424778761</v>
+        <v>0.4925595238095238</v>
       </c>
       <c r="F18">
-        <v>0.4736842105263158</v>
+        <v>0.487012987012987</v>
       </c>
       <c r="G18">
-        <v>0.47599451303155</v>
+        <v>0.4715447154471545</v>
       </c>
       <c r="H18">
-        <v>0.416</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6145251396648045</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="C19">
-        <v>0.5030581039755352</v>
+        <v>0.5055118110236221</v>
       </c>
       <c r="D19">
-        <v>0.5128205128205128</v>
+        <v>0.5472636815920398</v>
       </c>
       <c r="E19">
-        <v>0.4985029940119761</v>
+        <v>0.5</v>
       </c>
       <c r="F19">
-        <v>0.4662576687116564</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="G19">
-        <v>0.4678522571819426</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="H19">
-        <v>0.422</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6502732240437158</v>
+        <v>0.6098654708520179</v>
       </c>
       <c r="C20">
-        <v>0.5057971014492754</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="D20">
-        <v>0.5311004784688995</v>
+        <v>0.532967032967033</v>
       </c>
       <c r="E20">
-        <v>0.4828101644245142</v>
+        <v>0.4868035190615836</v>
       </c>
       <c r="F20">
-        <v>0.4220779220779221</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G20">
-        <v>0.4675862068965517</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="H20">
-        <v>0.408</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.656084656084656</v>
+        <v>0.6201923076923077</v>
       </c>
       <c r="C21">
-        <v>0.4964936886395512</v>
+        <v>0.5028901734104047</v>
       </c>
       <c r="D21">
-        <v>0.5454545454545454</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="E21">
-        <v>0.4955621301775148</v>
+        <v>0.5100574712643678</v>
       </c>
       <c r="F21">
-        <v>0.4802631578947368</v>
+        <v>0.4405594405594406</v>
       </c>
       <c r="G21">
-        <v>0.4690860215053764</v>
+        <v>0.4715984147952444</v>
       </c>
       <c r="H21">
-        <v>0.394</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6321243523316062</v>
+        <v>0.6446700507614214</v>
       </c>
       <c r="C22">
-        <v>0.4979423868312757</v>
+        <v>0.5055555555555555</v>
       </c>
       <c r="D22">
-        <v>0.5515463917525774</v>
+        <v>0.5198019801980198</v>
       </c>
       <c r="E22">
-        <v>0.4875912408759124</v>
+        <v>0.5153284671532846</v>
       </c>
       <c r="F22">
-        <v>0.4802631578947368</v>
+        <v>0.4149659863945578</v>
       </c>
       <c r="G22">
-        <v>0.4547872340425532</v>
+        <v>0.4712182061579652</v>
       </c>
       <c r="H22">
-        <v>0.396</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6206896551724138</v>
+        <v>0.654639175257732</v>
       </c>
       <c r="C23">
-        <v>0.512</v>
+        <v>0.4966799468791501</v>
       </c>
       <c r="D23">
-        <v>0.518324607329843</v>
+        <v>0.5198019801980198</v>
       </c>
       <c r="E23">
-        <v>0.488235294117647</v>
+        <v>0.5097159940209267</v>
       </c>
       <c r="F23">
-        <v>0.4864864864864865</v>
+        <v>0.4</v>
       </c>
       <c r="G23">
-        <v>0.45</v>
+        <v>0.458950201884253</v>
       </c>
       <c r="H23">
-        <v>0.394</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6064814814814815</v>
+        <v>0.6243654822335025</v>
       </c>
       <c r="C24">
-        <v>0.5159574468085106</v>
+        <v>0.4968071519795658</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <v>0.5654450261780105</v>
       </c>
       <c r="E24">
-        <v>0.5059171597633136</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="F24">
-        <v>0.4868421052631579</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G24">
-        <v>0.4505494505494506</v>
+        <v>0.4602960969044415</v>
       </c>
       <c r="H24">
-        <v>0.39</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6551724137931034</v>
+        <v>0.615</v>
       </c>
       <c r="C25">
-        <v>0.5229357798165137</v>
+        <v>0.4975429975429975</v>
       </c>
       <c r="D25">
-        <v>0.4894736842105263</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="E25">
-        <v>0.5014619883040936</v>
+        <v>0.4964336661911555</v>
       </c>
       <c r="F25">
-        <v>0.4879518072289157</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.4392905866302865</v>
+        <v>0.4575596816976127</v>
       </c>
       <c r="H25">
-        <v>0.4</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.6268656716417911</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C26">
-        <v>0.5104808877928483</v>
+        <v>0.5018270401948843</v>
       </c>
       <c r="D26">
-        <v>0.5051020408163265</v>
+        <v>0.5310734463276836</v>
       </c>
       <c r="E26">
-        <v>0.4985507246376812</v>
+        <v>0.497841726618705</v>
       </c>
       <c r="F26">
-        <v>0.4934210526315789</v>
+        <v>0.5211267605633803</v>
       </c>
       <c r="G26">
-        <v>0.4330175913396482</v>
+        <v>0.4616419919246299</v>
       </c>
       <c r="H26">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.6559139784946236</v>
+        <v>0.6298076923076923</v>
       </c>
       <c r="C27">
-        <v>0.5119617224880383</v>
+        <v>0.4988290398126464</v>
       </c>
       <c r="D27">
-        <v>0.4944444444444445</v>
+        <v>0.5076142131979695</v>
       </c>
       <c r="E27">
-        <v>0.4885714285714285</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="F27">
-        <v>0.4583333333333333</v>
+        <v>0.5165562913907285</v>
       </c>
       <c r="G27">
-        <v>0.4375821287779238</v>
+        <v>0.4516556291390729</v>
       </c>
       <c r="H27">
-        <v>0.378</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.6137566137566137</v>
+        <v>0.625</v>
       </c>
       <c r="C28">
-        <v>0.5051311288483467</v>
+        <v>0.5081206496519721</v>
       </c>
       <c r="D28">
-        <v>0.5166666666666667</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="E28">
-        <v>0.4922644163150492</v>
+        <v>0.5007342143906021</v>
       </c>
       <c r="F28">
-        <v>0.4577464788732394</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.4384816753926701</v>
+        <v>0.4522207267833109</v>
       </c>
       <c r="H28">
-        <v>0.398</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,22 +1128,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5882352941176471</v>
+        <v>0.6183574879227053</v>
       </c>
       <c r="C29">
-        <v>0.5191441441441441</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="D29">
-        <v>0.5680473372781065</v>
+        <v>0.4973262032085561</v>
       </c>
       <c r="E29">
-        <v>0.4957264957264957</v>
+        <v>0.4927325581395349</v>
       </c>
       <c r="F29">
-        <v>0.4324324324324325</v>
+        <v>0.5030674846625767</v>
       </c>
       <c r="G29">
-        <v>0.4369189907038513</v>
+        <v>0.449255751014885</v>
       </c>
       <c r="H29">
         <v>0.404</v>
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.5918367346938775</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="C30">
-        <v>0.5246636771300448</v>
+        <v>0.5170893054024256</v>
       </c>
       <c r="D30">
-        <v>0.5421052631578948</v>
+        <v>0.4331550802139038</v>
       </c>
       <c r="E30">
-        <v>0.4992887624466572</v>
+        <v>0.4906204906204906</v>
       </c>
       <c r="F30">
-        <v>0.3877551020408163</v>
+        <v>0.4970760233918128</v>
       </c>
       <c r="G30">
-        <v>0.4241610738255033</v>
+        <v>0.4506849315068493</v>
       </c>
       <c r="H30">
-        <v>0.414</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.6153846153846154</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="C31">
-        <v>0.5369565217391304</v>
+        <v>0.5207226354941552</v>
       </c>
       <c r="D31">
-        <v>0.5027624309392266</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="E31">
-        <v>0.5095447870778267</v>
+        <v>0.4978662873399716</v>
       </c>
       <c r="F31">
-        <v>0.3857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="G31">
-        <v>0.4183535762483131</v>
+        <v>0.4535666218034993</v>
       </c>
       <c r="H31">
-        <v>0.416</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.6038647342995169</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="C32">
-        <v>0.5226781857451404</v>
+        <v>0.5212435233160622</v>
       </c>
       <c r="D32">
-        <v>0.4329896907216495</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E32">
-        <v>0.5014409221902018</v>
+        <v>0.4884726224783862</v>
       </c>
       <c r="F32">
-        <v>0.3630573248407643</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="G32">
-        <v>0.4109042553191489</v>
+        <v>0.4481382978723404</v>
       </c>
       <c r="H32">
-        <v>0.42</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5933014354066986</v>
+        <v>0.6</v>
       </c>
       <c r="C33">
-        <v>0.5265348595213319</v>
+        <v>0.5211267605633803</v>
       </c>
       <c r="D33">
-        <v>0.4916201117318436</v>
+        <v>0.4438502673796791</v>
       </c>
       <c r="E33">
-        <v>0.5007173601147776</v>
+        <v>0.48068669527897</v>
       </c>
       <c r="F33">
-        <v>0.4266666666666667</v>
+        <v>0.5136986301369864</v>
       </c>
       <c r="G33">
-        <v>0.4114513981358189</v>
+        <v>0.4476439790575916</v>
       </c>
       <c r="H33">
-        <v>0.418</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5637254901960784</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="C34">
-        <v>0.524008350730689</v>
+        <v>0.5194416749750748</v>
       </c>
       <c r="D34">
-        <v>0.5030674846625767</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="E34">
-        <v>0.481962481962482</v>
+        <v>0.4934497816593886</v>
       </c>
       <c r="F34">
-        <v>0.4357142857142857</v>
+        <v>0.4846153846153846</v>
       </c>
       <c r="G34">
-        <v>0.4040268456375839</v>
+        <v>0.4484126984126984</v>
       </c>
       <c r="H34">
-        <v>0.402</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5631067961165048</v>
+        <v>0.6084905660377359</v>
       </c>
       <c r="C35">
-        <v>0.5307769929364279</v>
+        <v>0.509765625</v>
       </c>
       <c r="D35">
-        <v>0.5126903553299492</v>
+        <v>0.4682926829268293</v>
       </c>
       <c r="E35">
-        <v>0.4763948497854077</v>
+        <v>0.489766081871345</v>
       </c>
       <c r="F35">
-        <v>0.4482758620689655</v>
+        <v>0.4421768707482993</v>
       </c>
       <c r="G35">
-        <v>0.4113756613756614</v>
+        <v>0.453104359313078</v>
       </c>
       <c r="H35">
-        <v>0.404</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5740740740740741</v>
+        <v>0.6096491228070176</v>
       </c>
       <c r="C36">
-        <v>0.5294705294705294</v>
+        <v>0.5091787439613527</v>
       </c>
       <c r="D36">
-        <v>0.49</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="E36">
-        <v>0.485207100591716</v>
+        <v>0.4829123328380386</v>
       </c>
       <c r="F36">
-        <v>0.475177304964539</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="G36">
-        <v>0.4110512129380054</v>
+        <v>0.4445927903871829</v>
       </c>
       <c r="H36">
-        <v>0.394</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5560747663551402</v>
+        <v>0.6045454545454545</v>
       </c>
       <c r="C37">
-        <v>0.5270403146509341</v>
+        <v>0.5058027079303675</v>
       </c>
       <c r="D37">
-        <v>0.4928229665071771</v>
+        <v>0.4973821989528796</v>
       </c>
       <c r="E37">
-        <v>0.488822652757079</v>
+        <v>0.4850746268656717</v>
       </c>
       <c r="F37">
-        <v>0.4213836477987422</v>
+        <v>0.5273972602739726</v>
       </c>
       <c r="G37">
-        <v>0.4032258064516129</v>
+        <v>0.4375857338820302</v>
       </c>
       <c r="H37">
-        <v>0.382</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.5714285714285714</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C38">
-        <v>0.5306513409961686</v>
+        <v>0.5028571428571429</v>
       </c>
       <c r="D38">
-        <v>0.5247524752475248</v>
+        <v>0.527363184079602</v>
       </c>
       <c r="E38">
-        <v>0.4824561403508772</v>
+        <v>0.506006006006006</v>
       </c>
       <c r="F38">
-        <v>0.4379084967320261</v>
+        <v>0.4472049689440994</v>
       </c>
       <c r="G38">
-        <v>0.4077540106951872</v>
+        <v>0.4250343878954608</v>
       </c>
       <c r="H38">
-        <v>0.384</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.5784313725490197</v>
+        <v>0.6243654822335025</v>
       </c>
       <c r="C39">
-        <v>0.5253759398496241</v>
+        <v>0.4938737040527804</v>
       </c>
       <c r="D39">
-        <v>0.532967032967033</v>
+        <v>0.5707317073170731</v>
       </c>
       <c r="E39">
-        <v>0.4760522496371553</v>
+        <v>0.5</v>
       </c>
       <c r="F39">
-        <v>0.4592592592592593</v>
+        <v>0.3803680981595092</v>
       </c>
       <c r="G39">
-        <v>0.4127829560585886</v>
+        <v>0.4353741496598639</v>
       </c>
       <c r="H39">
-        <v>0.374</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.5586854460093896</v>
+        <v>0.6103286384976526</v>
       </c>
       <c r="C40">
-        <v>0.5272045028142589</v>
+        <v>0.4963570127504554</v>
       </c>
       <c r="D40">
-        <v>0.5444444444444444</v>
+        <v>0.5794871794871795</v>
       </c>
       <c r="E40">
-        <v>0.477037037037037</v>
+        <v>0.4804804804804805</v>
       </c>
       <c r="F40">
-        <v>0.4864864864864865</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="G40">
-        <v>0.4144385026737968</v>
+        <v>0.4359673024523161</v>
       </c>
       <c r="H40">
-        <v>0.362</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.5902439024390244</v>
+        <v>0.6342592592592593</v>
       </c>
       <c r="C41">
-        <v>0.5262172284644194</v>
+        <v>0.4928057553956834</v>
       </c>
       <c r="D41">
-        <v>0.518324607329843</v>
+        <v>0.5136612021857924</v>
       </c>
       <c r="E41">
-        <v>0.4828614008941878</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="F41">
-        <v>0.487012987012987</v>
+        <v>0.5</v>
       </c>
       <c r="G41">
-        <v>0.4142661179698217</v>
+        <v>0.4287634408602151</v>
       </c>
       <c r="H41">
-        <v>0.356</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6157407407407407</v>
+        <v>0.642512077294686</v>
       </c>
       <c r="C42">
-        <v>0.5140018066847335</v>
+        <v>0.4876760563380282</v>
       </c>
       <c r="D42">
-        <v>0.4685990338164251</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="E42">
-        <v>0.4884393063583815</v>
+        <v>0.5014204545454546</v>
       </c>
       <c r="F42">
-        <v>0.4423076923076923</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="G42">
-        <v>0.4099462365591398</v>
+        <v>0.4202702702702703</v>
       </c>
       <c r="H42">
-        <v>0.362</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.6067961165048543</v>
+        <v>0.6292682926829268</v>
       </c>
       <c r="C43">
-        <v>0.496014171833481</v>
+        <v>0.4891587163920208</v>
       </c>
       <c r="D43">
-        <v>0.531578947368421</v>
+        <v>0.5085714285714286</v>
       </c>
       <c r="E43">
-        <v>0.5036075036075036</v>
+        <v>0.498567335243553</v>
       </c>
       <c r="F43">
-        <v>0.4697986577181208</v>
+        <v>0.5620915032679739</v>
       </c>
       <c r="G43">
-        <v>0.4105960264900662</v>
+        <v>0.408355795148248</v>
       </c>
       <c r="H43">
-        <v>0.362</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.5789473684210527</v>
+        <v>0.6105769230769231</v>
       </c>
       <c r="C44">
-        <v>0.4986967854039965</v>
+        <v>0.4987102321582115</v>
       </c>
       <c r="D44">
-        <v>0.5681818181818182</v>
+        <v>0.4973262032085561</v>
       </c>
       <c r="E44">
-        <v>0.4854651162790697</v>
+        <v>0.5131964809384164</v>
       </c>
       <c r="F44">
-        <v>0.4452054794520548</v>
+        <v>0.5534591194968553</v>
       </c>
       <c r="G44">
-        <v>0.4013422818791946</v>
+        <v>0.4085281980742779</v>
       </c>
       <c r="H44">
-        <v>0.382</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5902439024390244</v>
+        <v>0.5934579439252337</v>
       </c>
       <c r="C45">
-        <v>0.5060449050086355</v>
+        <v>0.5055793991416309</v>
       </c>
       <c r="D45">
-        <v>0.5638297872340425</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E45">
-        <v>0.4919472913616398</v>
+        <v>0.5151057401812689</v>
       </c>
       <c r="F45">
-        <v>0.5066666666666667</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="G45">
-        <v>0.4016282225237449</v>
+        <v>0.4191279887482419</v>
       </c>
       <c r="H45">
-        <v>0.378</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5947368421052631</v>
+        <v>0.5885167464114832</v>
       </c>
       <c r="C46">
-        <v>0.5012722646310432</v>
+        <v>0.5084175084175084</v>
       </c>
       <c r="D46">
-        <v>0.5240641711229946</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="E46">
-        <v>0.4809941520467836</v>
+        <v>0.5022354694485842</v>
       </c>
       <c r="F46">
-        <v>0.4938271604938271</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="G46">
-        <v>0.4112903225806452</v>
+        <v>0.4182825484764543</v>
       </c>
       <c r="H46">
-        <v>0.354</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5767195767195767</v>
+        <v>0.5887850467289719</v>
       </c>
       <c r="C47">
-        <v>0.4991749174917492</v>
+        <v>0.5127572016460905</v>
       </c>
       <c r="D47">
-        <v>0.5478723404255319</v>
+        <v>0.4554455445544555</v>
       </c>
       <c r="E47">
-        <v>0.4805755395683453</v>
+        <v>0.4932533733133433</v>
       </c>
       <c r="F47">
-        <v>0.5283018867924528</v>
+        <v>0.563953488372093</v>
       </c>
       <c r="G47">
-        <v>0.412483039348711</v>
+        <v>0.4303448275862069</v>
       </c>
       <c r="H47">
-        <v>0.368</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="C48">
-        <v>0.5028112449799197</v>
+        <v>0.5138211382113821</v>
       </c>
       <c r="D48">
-        <v>0.5368421052631579</v>
+        <v>0.4223300970873786</v>
       </c>
       <c r="E48">
-        <v>0.4829059829059829</v>
+        <v>0.4874446085672083</v>
       </c>
       <c r="F48">
-        <v>0.5225806451612903</v>
+        <v>0.5212121212121212</v>
       </c>
       <c r="G48">
-        <v>0.4072580645161291</v>
+        <v>0.4221311475409836</v>
       </c>
       <c r="H48">
-        <v>0.366</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.62</v>
+        <v>0.6008771929824561</v>
       </c>
       <c r="C49">
-        <v>0.5067621320604614</v>
+        <v>0.511164274322169</v>
       </c>
       <c r="D49">
-        <v>0.5257142857142857</v>
+        <v>0.4256410256410256</v>
       </c>
       <c r="E49">
-        <v>0.4856733524355301</v>
+        <v>0.4962962962962963</v>
       </c>
       <c r="F49">
-        <v>0.4864864864864865</v>
+        <v>0.5448717948717948</v>
       </c>
       <c r="G49">
-        <v>0.4115281501340483</v>
+        <v>0.4316644113667118</v>
       </c>
       <c r="H49">
-        <v>0.362</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6150234741784038</v>
+        <v>0.5990783410138248</v>
       </c>
       <c r="C50">
-        <v>0.4956521739130435</v>
+        <v>0.5137318255250404</v>
       </c>
       <c r="D50">
-        <v>0.5081967213114754</v>
+        <v>0.4462365591397849</v>
       </c>
       <c r="E50">
-        <v>0.4985632183908046</v>
+        <v>0.4880239520958084</v>
       </c>
       <c r="F50">
-        <v>0.4899328859060403</v>
+        <v>0.506578947368421</v>
       </c>
       <c r="G50">
-        <v>0.4127198917456021</v>
+        <v>0.4417009602194787</v>
       </c>
       <c r="H50">
-        <v>0.354</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6161137440758294</v>
+        <v>0.6108374384236454</v>
       </c>
       <c r="C51">
-        <v>0.4901185770750988</v>
+        <v>0.5202863961813843</v>
       </c>
       <c r="D51">
-        <v>0.5405405405405406</v>
+        <v>0.4494949494949495</v>
       </c>
       <c r="E51">
-        <v>0.5058309037900874</v>
+        <v>0.4940119760479042</v>
       </c>
       <c r="F51">
-        <v>0.4409937888198758</v>
+        <v>0.4939024390243902</v>
       </c>
       <c r="G51">
-        <v>0.4102564102564102</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="H51">
-        <v>0.358</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,22 +1726,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5794392523364486</v>
+        <v>0.6381909547738693</v>
       </c>
       <c r="C52">
-        <v>0.4976744186046512</v>
+        <v>0.514419329696025</v>
       </c>
       <c r="D52">
-        <v>0.5678391959798995</v>
+        <v>0.44</v>
       </c>
       <c r="E52">
-        <v>0.4970930232558139</v>
+        <v>0.4821958456973294</v>
       </c>
       <c r="F52">
-        <v>0.4156626506024096</v>
+        <v>0.4659090909090909</v>
       </c>
       <c r="G52">
-        <v>0.4114441416893733</v>
+        <v>0.4597222222222222</v>
       </c>
       <c r="H52">
         <v>0.358</v>
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5734597156398105</v>
+        <v>0.6633165829145728</v>
       </c>
       <c r="C53">
-        <v>0.5073020753266718</v>
+        <v>0.5130970724191063</v>
       </c>
       <c r="D53">
-        <v>0.5102040816326531</v>
+        <v>0.4723618090452261</v>
       </c>
       <c r="E53">
-        <v>0.4985250737463127</v>
+        <v>0.4792284866468843</v>
       </c>
       <c r="F53">
-        <v>0.5153374233128835</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="G53">
-        <v>0.4103967168262654</v>
+        <v>0.4575070821529745</v>
       </c>
       <c r="H53">
-        <v>0.366</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5595854922279793</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="C54">
-        <v>0.5105740181268882</v>
+        <v>0.513595166163142</v>
       </c>
       <c r="D54">
-        <v>0.5106382978723404</v>
+        <v>0.4870466321243523</v>
       </c>
       <c r="E54">
-        <v>0.4919236417033774</v>
+        <v>0.4733727810650887</v>
       </c>
       <c r="F54">
-        <v>0.4695121951219512</v>
+        <v>0.5144508670520231</v>
       </c>
       <c r="G54">
-        <v>0.3997271487039564</v>
+        <v>0.4447513812154696</v>
       </c>
       <c r="H54">
-        <v>0.364</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5742574257425742</v>
+        <v>0.6262135922330098</v>
       </c>
       <c r="C55">
-        <v>0.5144124168514412</v>
+        <v>0.5171641791044777</v>
       </c>
       <c r="D55">
-        <v>0.5351351351351351</v>
+        <v>0.4944444444444445</v>
       </c>
       <c r="E55">
-        <v>0.4818049490538573</v>
+        <v>0.465149359886202</v>
       </c>
       <c r="F55">
-        <v>0.5283018867924528</v>
+        <v>0.525974025974026</v>
       </c>
       <c r="G55">
-        <v>0.4097693351424695</v>
+        <v>0.4420485175202156</v>
       </c>
       <c r="H55">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5665024630541872</v>
+        <v>0.643979057591623</v>
       </c>
       <c r="C56">
-        <v>0.5129151291512916</v>
+        <v>0.5203552923760177</v>
       </c>
       <c r="D56">
-        <v>0.5392670157068062</v>
+        <v>0.4968944099378882</v>
       </c>
       <c r="E56">
-        <v>0.4716981132075472</v>
+        <v>0.4512022630834512</v>
       </c>
       <c r="F56">
-        <v>0.5337423312883436</v>
+        <v>0.5037037037037037</v>
       </c>
       <c r="G56">
-        <v>0.4048913043478261</v>
+        <v>0.4401595744680851</v>
       </c>
       <c r="H56">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.599009900990099</v>
+        <v>0.609375</v>
       </c>
       <c r="C57">
-        <v>0.5104996379435192</v>
+        <v>0.5184381778741866</v>
       </c>
       <c r="D57">
-        <v>0.5130890052356021</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E57">
-        <v>0.4718614718614719</v>
+        <v>0.4586255259467041</v>
       </c>
       <c r="F57">
-        <v>0.5153374233128835</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="G57">
-        <v>0.4029649595687331</v>
+        <v>0.4390563564875491</v>
       </c>
       <c r="H57">
-        <v>0.374</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6178010471204188</v>
+        <v>0.5967741935483871</v>
       </c>
       <c r="C58">
-        <v>0.5071736011477762</v>
+        <v>0.5175125089349535</v>
       </c>
       <c r="D58">
-        <v>0.5290697674418605</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="E58">
-        <v>0.4732272069464544</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="F58">
-        <v>0.5273972602739726</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G58">
-        <v>0.4051490514905149</v>
+        <v>0.450402144772118</v>
       </c>
       <c r="H58">
-        <v>0.378</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5916230366492147</v>
+        <v>0.5958549222797928</v>
       </c>
       <c r="C59">
-        <v>0.4982480728801682</v>
+        <v>0.5173389950460014</v>
       </c>
       <c r="D59">
-        <v>0.5139664804469274</v>
+        <v>0.4971428571428572</v>
       </c>
       <c r="E59">
-        <v>0.4736842105263158</v>
+        <v>0.4644412191582003</v>
       </c>
       <c r="F59">
-        <v>0.5298013245033113</v>
+        <v>0.4172185430463576</v>
       </c>
       <c r="G59">
-        <v>0.4061662198391421</v>
+        <v>0.4514824797843666</v>
       </c>
       <c r="H59">
-        <v>0.37</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5978835978835979</v>
+        <v>0.6030927835051546</v>
       </c>
       <c r="C60">
-        <v>0.5020746887966805</v>
+        <v>0.5154277699859747</v>
       </c>
       <c r="D60">
-        <v>0.543859649122807</v>
+        <v>0.515625</v>
       </c>
       <c r="E60">
-        <v>0.4628571428571429</v>
+        <v>0.4552023121387283</v>
       </c>
       <c r="F60">
-        <v>0.484472049689441</v>
+        <v>0.4085365853658536</v>
       </c>
       <c r="G60">
-        <v>0.4118438761776582</v>
+        <v>0.457259158751696</v>
       </c>
       <c r="H60">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5683060109289617</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="C61">
-        <v>0.5061391541609823</v>
+        <v>0.5094076655052264</v>
       </c>
       <c r="D61">
-        <v>0.5439560439560439</v>
+        <v>0.5240641711229946</v>
       </c>
       <c r="E61">
-        <v>0.4680851063829787</v>
+        <v>0.4497816593886463</v>
       </c>
       <c r="F61">
-        <v>0.53125</v>
+        <v>0.4378698224852071</v>
       </c>
       <c r="G61">
-        <v>0.4156378600823045</v>
+        <v>0.452445652173913</v>
       </c>
       <c r="H61">
-        <v>0.372</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.582089552238806</v>
+        <v>0.5786802030456852</v>
       </c>
       <c r="C62">
-        <v>0.5165652467883706</v>
+        <v>0.5116598079561042</v>
       </c>
       <c r="D62">
-        <v>0.4736842105263158</v>
+        <v>0.5754189944134078</v>
       </c>
       <c r="E62">
-        <v>0.4636627906976744</v>
+        <v>0.4563662374821173</v>
       </c>
       <c r="F62">
-        <v>0.4634146341463415</v>
+        <v>0.4178082191780822</v>
       </c>
       <c r="G62">
-        <v>0.4228650137741047</v>
+        <v>0.4427792915531335</v>
       </c>
       <c r="H62">
-        <v>0.354</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6176470588235294</v>
+        <v>0.5922330097087378</v>
       </c>
       <c r="C63">
-        <v>0.5160628844839371</v>
+        <v>0.5115332428765265</v>
       </c>
       <c r="D63">
-        <v>0.4569892473118279</v>
+        <v>0.5202312138728323</v>
       </c>
       <c r="E63">
-        <v>0.4718100890207715</v>
+        <v>0.4542857142857143</v>
       </c>
       <c r="F63">
-        <v>0.4967741935483871</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G63">
-        <v>0.4402777777777778</v>
+        <v>0.446524064171123</v>
       </c>
       <c r="H63">
-        <v>0.346</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.605</v>
+        <v>0.6157635467980296</v>
       </c>
       <c r="C64">
-        <v>0.5093708165997323</v>
+        <v>0.5131490222521915</v>
       </c>
       <c r="D64">
-        <v>0.445</v>
+        <v>0.5474860335195531</v>
       </c>
       <c r="E64">
-        <v>0.4641833810888252</v>
+        <v>0.4624277456647399</v>
       </c>
       <c r="F64">
-        <v>0.4697986577181208</v>
+        <v>0.4303797468354431</v>
       </c>
       <c r="G64">
-        <v>0.4295212765957447</v>
+        <v>0.4450474898236092</v>
       </c>
       <c r="H64">
-        <v>0.35</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.5951219512195122</v>
+        <v>0.6135265700483091</v>
       </c>
       <c r="C65">
-        <v>0.507313829787234</v>
+        <v>0.5122760451227605</v>
       </c>
       <c r="D65">
-        <v>0.4647058823529412</v>
+        <v>0.5260416666666666</v>
       </c>
       <c r="E65">
-        <v>0.4706744868035191</v>
+        <v>0.4687953555878084</v>
       </c>
       <c r="F65">
-        <v>0.5034965034965035</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="G65">
-        <v>0.44</v>
+        <v>0.4429160935350757</v>
       </c>
       <c r="H65">
-        <v>0.35</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.57</v>
+        <v>0.5906976744186047</v>
       </c>
       <c r="C66">
-        <v>0.5105960264900662</v>
+        <v>0.5115511551155115</v>
       </c>
       <c r="D66">
-        <v>0.4972972972972973</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="E66">
-        <v>0.4672489082969432</v>
+        <v>0.4739884393063584</v>
       </c>
       <c r="F66">
-        <v>0.4460431654676259</v>
+        <v>0.453416149068323</v>
       </c>
       <c r="G66">
-        <v>0.4401076716016151</v>
+        <v>0.4326145552560647</v>
       </c>
       <c r="H66">
-        <v>0.356</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.585</v>
+        <v>0.6036866359447005</v>
       </c>
       <c r="C67">
-        <v>0.5140798952193845</v>
+        <v>0.5078534031413613</v>
       </c>
       <c r="D67">
-        <v>0.492462311557789</v>
+        <v>0.4970760233918128</v>
       </c>
       <c r="E67">
-        <v>0.4735294117647059</v>
+        <v>0.4681753889674682</v>
       </c>
       <c r="F67">
-        <v>0.3732394366197183</v>
+        <v>0.4493670886075949</v>
       </c>
       <c r="G67">
-        <v>0.4386666666666666</v>
+        <v>0.42456608811749</v>
       </c>
       <c r="H67">
-        <v>0.362</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5649999999999999</v>
+        <v>0.6435185185185185</v>
       </c>
       <c r="C68">
-        <v>0.5155844155844156</v>
+        <v>0.5029126213592233</v>
       </c>
       <c r="D68">
-        <v>0.48</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="E68">
-        <v>0.4698085419734904</v>
+        <v>0.4737569060773481</v>
       </c>
       <c r="F68">
-        <v>0.4042553191489361</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="G68">
-        <v>0.4562334217506631</v>
+        <v>0.4229249011857708</v>
       </c>
       <c r="H68">
-        <v>0.358</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="C69">
-        <v>0.5164622336991608</v>
+        <v>0.4955012853470437</v>
       </c>
       <c r="D69">
-        <v>0.5133689839572193</v>
+        <v>0.5625</v>
       </c>
       <c r="E69">
-        <v>0.476401179941003</v>
+        <v>0.4674965421853389</v>
       </c>
       <c r="F69">
-        <v>0.4172661870503597</v>
+        <v>0.4326241134751773</v>
       </c>
       <c r="G69">
-        <v>0.4472295514511873</v>
+        <v>0.4201570680628272</v>
       </c>
       <c r="H69">
-        <v>0.356</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.5722222222222222</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C70">
-        <v>0.5165315034310668</v>
+        <v>0.4958519463943842</v>
       </c>
       <c r="D70">
-        <v>0.5434782608695652</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="E70">
-        <v>0.4630681818181818</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="F70">
-        <v>0.4135338345864661</v>
+        <v>0.5</v>
       </c>
       <c r="G70">
-        <v>0.4467532467532467</v>
+        <v>0.4209827357237716</v>
       </c>
       <c r="H70">
-        <v>0.354</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5989583333333334</v>
+        <v>0.6297872340425532</v>
       </c>
       <c r="C71">
-        <v>0.5154320987654321</v>
+        <v>0.4980891719745223</v>
       </c>
       <c r="D71">
-        <v>0.5269461077844312</v>
+        <v>0.5297619047619048</v>
       </c>
       <c r="E71">
-        <v>0.4472573839662447</v>
+        <v>0.475177304964539</v>
       </c>
       <c r="F71">
-        <v>0.443609022556391</v>
+        <v>0.4527027027027027</v>
       </c>
       <c r="G71">
-        <v>0.44801026957638</v>
+        <v>0.4157754010695187</v>
       </c>
       <c r="H71">
-        <v>0.35</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6122448979591837</v>
+        <v>0.6227272727272727</v>
       </c>
       <c r="C72">
-        <v>0.5136944613511869</v>
+        <v>0.4980744544287548</v>
       </c>
       <c r="D72">
-        <v>0.4880952380952381</v>
+        <v>0.4709302325581395</v>
       </c>
       <c r="E72">
-        <v>0.4536652835408022</v>
+        <v>0.4834054834054834</v>
       </c>
       <c r="F72">
-        <v>0.5111111111111111</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="G72">
-        <v>0.4481434058898848</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="H72">
-        <v>0.35</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5989847715736041</v>
+        <v>0.5990783410138248</v>
       </c>
       <c r="C73">
-        <v>0.5082669932639314</v>
+        <v>0.5050441361916772</v>
       </c>
       <c r="D73">
-        <v>0.4539877300613497</v>
+        <v>0.4973544973544973</v>
       </c>
       <c r="E73">
-        <v>0.4641833810888252</v>
+        <v>0.4840116279069768</v>
       </c>
       <c r="F73">
-        <v>0.5433070866141733</v>
+        <v>0.437125748502994</v>
       </c>
       <c r="G73">
-        <v>0.4444444444444444</v>
+        <v>0.4099037138927097</v>
       </c>
       <c r="H73">
-        <v>0.354</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6041666666666666</v>
+        <v>0.6146341463414634</v>
       </c>
       <c r="C74">
-        <v>0.5081276339554486</v>
+        <v>0.5093283582089553</v>
       </c>
       <c r="D74">
-        <v>0.4875621890547264</v>
+        <v>0.4450261780104712</v>
       </c>
       <c r="E74">
-        <v>0.4620886981402003</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F74">
-        <v>0.4545454545454545</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G74">
-        <v>0.4340369393139842</v>
+        <v>0.4008207934336525</v>
       </c>
       <c r="H74">
-        <v>0.362</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.585</v>
+        <v>0.6354679802955665</v>
       </c>
       <c r="C75">
-        <v>0.5128205128205128</v>
+        <v>0.5088685015290519</v>
       </c>
       <c r="D75">
-        <v>0.4748603351955307</v>
+        <v>0.4507772020725389</v>
       </c>
       <c r="E75">
-        <v>0.4774381368267831</v>
+        <v>0.4671532846715328</v>
       </c>
       <c r="F75">
-        <v>0.4758620689655172</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="G75">
-        <v>0.4445927903871829</v>
+        <v>0.3903448275862069</v>
       </c>
       <c r="H75">
-        <v>0.368</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6127450980392157</v>
+        <v>0.6303317535545023</v>
       </c>
       <c r="C76">
-        <v>0.521608643457383</v>
+        <v>0.5084134615384616</v>
       </c>
       <c r="D76">
-        <v>0.4871794871794872</v>
+        <v>0.4497354497354497</v>
       </c>
       <c r="E76">
-        <v>0.4788321167883212</v>
+        <v>0.4599708879184862</v>
       </c>
       <c r="F76">
-        <v>0.4133333333333333</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="G76">
-        <v>0.4390896921017403</v>
+        <v>0.3826322930800543</v>
       </c>
       <c r="H76">
-        <v>0.374</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.6208530805687204</v>
+        <v>0.5851528384279476</v>
       </c>
       <c r="C77">
-        <v>0.5170149253731343</v>
+        <v>0.5077197149643705</v>
       </c>
       <c r="D77">
-        <v>0.4285714285714285</v>
+        <v>0.4497041420118343</v>
       </c>
       <c r="E77">
-        <v>0.4732937685459941</v>
+        <v>0.46875</v>
       </c>
       <c r="F77">
-        <v>0.4177215189873418</v>
+        <v>0.4768211920529801</v>
       </c>
       <c r="G77">
-        <v>0.4442953020134228</v>
+        <v>0.386271870794078</v>
       </c>
       <c r="H77">
-        <v>0.362</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,22 +2402,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.6</v>
+        <v>0.6272727272727273</v>
       </c>
       <c r="C78">
-        <v>0.5151155898043864</v>
+        <v>0.5128665469778576</v>
       </c>
       <c r="D78">
-        <v>0.4385026737967914</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="E78">
-        <v>0.4705882352941176</v>
+        <v>0.4582743988684583</v>
       </c>
       <c r="F78">
-        <v>0.4110429447852761</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G78">
-        <v>0.4333781965006729</v>
+        <v>0.3997326203208556</v>
       </c>
       <c r="H78">
         <v>0.382</v>
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.6223404255319149</v>
+        <v>0.6525821596244131</v>
       </c>
       <c r="C79">
-        <v>0.5178050204319906</v>
+        <v>0.5076560659599529</v>
       </c>
       <c r="D79">
-        <v>0.45</v>
+        <v>0.4797687861271676</v>
       </c>
       <c r="E79">
-        <v>0.4672489082969432</v>
+        <v>0.4514767932489451</v>
       </c>
       <c r="F79">
-        <v>0.4513888888888889</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="G79">
-        <v>0.4330601092896175</v>
+        <v>0.3978638184245661</v>
       </c>
       <c r="H79">
-        <v>0.37</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.6031746031746031</v>
+        <v>0.6271929824561403</v>
       </c>
       <c r="C80">
-        <v>0.5154880187025132</v>
+        <v>0.5073056691992986</v>
       </c>
       <c r="D80">
-        <v>0.4838709677419355</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="E80">
-        <v>0.4533333333333333</v>
+        <v>0.4442877291960508</v>
       </c>
       <c r="F80">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
       <c r="G80">
-        <v>0.4281805745554035</v>
+        <v>0.3972972972972973</v>
       </c>
       <c r="H80">
-        <v>0.382</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.640625</v>
+        <v>0.6223175965665236</v>
       </c>
       <c r="C81">
-        <v>0.5127314814814815</v>
+        <v>0.5126247798003524</v>
       </c>
       <c r="D81">
-        <v>0.4364640883977901</v>
+        <v>0.4235294117647059</v>
       </c>
       <c r="E81">
-        <v>0.4352256186317321</v>
+        <v>0.4483240223463687</v>
       </c>
       <c r="F81">
-        <v>0.487012987012987</v>
+        <v>0.524822695035461</v>
       </c>
       <c r="G81">
-        <v>0.4226110363391655</v>
+        <v>0.4016064257028112</v>
       </c>
       <c r="H81">
-        <v>0.378</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5851063829787234</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="C82">
-        <v>0.5089131684876366</v>
+        <v>0.5115740740740741</v>
       </c>
       <c r="D82">
-        <v>0.5028571428571429</v>
+        <v>0.4219653179190752</v>
       </c>
       <c r="E82">
-        <v>0.4458689458689459</v>
+        <v>0.4540389972144847</v>
       </c>
       <c r="F82">
-        <v>0.4527027027027027</v>
+        <v>0.4967320261437909</v>
       </c>
       <c r="G82">
-        <v>0.42456608811749</v>
+        <v>0.4070680628272251</v>
       </c>
       <c r="H82">
-        <v>0.376</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.6378378378378379</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C83">
-        <v>0.5116942384483743</v>
+        <v>0.5168667810177244</v>
       </c>
       <c r="D83">
-        <v>0.4917127071823205</v>
+        <v>0.4110429447852761</v>
       </c>
       <c r="E83">
-        <v>0.4369627507163324</v>
+        <v>0.4435146443514644</v>
       </c>
       <c r="F83">
-        <v>0.45625</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="G83">
-        <v>0.4353099730458221</v>
+        <v>0.4189723320158103</v>
       </c>
       <c r="H83">
-        <v>0.38</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6041666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C84">
-        <v>0.5033898305084745</v>
+        <v>0.5179573512906847</v>
       </c>
       <c r="D84">
-        <v>0.4756756756756757</v>
+        <v>0.4382716049382716</v>
       </c>
       <c r="E84">
-        <v>0.4322766570605187</v>
+        <v>0.4452247191011236</v>
       </c>
       <c r="F84">
-        <v>0.4539877300613497</v>
+        <v>0.5071428571428571</v>
       </c>
       <c r="G84">
-        <v>0.4239130434782609</v>
+        <v>0.4120734908136483</v>
       </c>
       <c r="H84">
-        <v>0.4</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.5913978494623656</v>
+        <v>0.5391705069124424</v>
       </c>
       <c r="C85">
-        <v>0.5022446689113356</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="D85">
-        <v>0.5</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="E85">
-        <v>0.4450784593437946</v>
+        <v>0.4255910987482615</v>
       </c>
       <c r="F85">
-        <v>0.4965034965034965</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="G85">
-        <v>0.429144385026738</v>
+        <v>0.4174372523117569</v>
       </c>
       <c r="H85">
-        <v>0.396</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.6157894736842106</v>
+        <v>0.5668202764976958</v>
       </c>
       <c r="C86">
-        <v>0.4977949283351709</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="D86">
-        <v>0.5232558139534884</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="E86">
-        <v>0.4540311173974541</v>
+        <v>0.4146685472496474</v>
       </c>
       <c r="F86">
-        <v>0.4615384615384616</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="G86">
-        <v>0.4272727272727272</v>
+        <v>0.417890520694259</v>
       </c>
       <c r="H86">
-        <v>0.388</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.5863874345549738</v>
+        <v>0.5625</v>
       </c>
       <c r="C87">
-        <v>0.4933333333333333</v>
+        <v>0.5251677852348994</v>
       </c>
       <c r="D87">
-        <v>0.5849056603773585</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="E87">
-        <v>0.4628571428571429</v>
+        <v>0.4129496402877698</v>
       </c>
       <c r="F87">
-        <v>0.4230769230769231</v>
+        <v>0.5369127516778524</v>
       </c>
       <c r="G87">
-        <v>0.4389610389610389</v>
+        <v>0.4192672998643148</v>
       </c>
       <c r="H87">
-        <v>0.38</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.58</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="C88">
-        <v>0.4955995599559956</v>
+        <v>0.5239933811362383</v>
       </c>
       <c r="D88">
-        <v>0.5706806282722513</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="E88">
-        <v>0.459915611814346</v>
+        <v>0.4037089871611983</v>
       </c>
       <c r="F88">
-        <v>0.4397163120567376</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="G88">
-        <v>0.4376623376623376</v>
+        <v>0.4262516914749662</v>
       </c>
       <c r="H88">
-        <v>0.376</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5948717948717949</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="C89">
-        <v>0.4920808301474604</v>
+        <v>0.5223311546840959</v>
       </c>
       <c r="D89">
-        <v>0.5737704918032787</v>
+        <v>0.5317919075144508</v>
       </c>
       <c r="E89">
-        <v>0.4673295454545455</v>
+        <v>0.4047954866008462</v>
       </c>
       <c r="F89">
-        <v>0.4571428571428571</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="G89">
-        <v>0.4313471502590673</v>
+        <v>0.4230254350736278</v>
       </c>
       <c r="H89">
-        <v>0.382</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.5825242718446602</v>
+        <v>0.5829145728643216</v>
       </c>
       <c r="C90">
-        <v>0.4932028276237085</v>
+        <v>0.5226158038147138</v>
       </c>
       <c r="D90">
-        <v>0.5290697674418605</v>
+        <v>0.5257142857142857</v>
       </c>
       <c r="E90">
-        <v>0.4754335260115607</v>
+        <v>0.4093484419263456</v>
       </c>
       <c r="F90">
-        <v>0.4511278195488722</v>
+        <v>0.4928571428571429</v>
       </c>
       <c r="G90">
-        <v>0.4391534391534391</v>
+        <v>0.429144385026738</v>
       </c>
       <c r="H90">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.6268656716417911</v>
+        <v>0.6062176165803109</v>
       </c>
       <c r="C91">
-        <v>0.4978118161925602</v>
+        <v>0.5178378378378379</v>
       </c>
       <c r="D91">
-        <v>0.5191256830601093</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="E91">
-        <v>0.4970930232558139</v>
+        <v>0.4179743223965763</v>
       </c>
       <c r="F91">
         <v>0.4276315789473684</v>
       </c>
       <c r="G91">
-        <v>0.4333333333333333</v>
+        <v>0.4351245085190039</v>
       </c>
       <c r="H91">
-        <v>0.372</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.616504854368932</v>
+        <v>0.6130653266331658</v>
       </c>
       <c r="C92">
-        <v>0.4929193899782135</v>
+        <v>0.5169994603345925</v>
       </c>
       <c r="D92">
-        <v>0.4640883977900552</v>
+        <v>0.514792899408284</v>
       </c>
       <c r="E92">
-        <v>0.4758418740849195</v>
+        <v>0.4234620886981402</v>
       </c>
       <c r="F92">
-        <v>0.4144736842105263</v>
+        <v>0.4265734265734266</v>
       </c>
       <c r="G92">
-        <v>0.4293478260869565</v>
+        <v>0.4308510638297872</v>
       </c>
       <c r="H92">
-        <v>0.374</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6367924528301887</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C93">
-        <v>0.4972885032537961</v>
+        <v>0.5110274341043571</v>
       </c>
       <c r="D93">
-        <v>0.4514285714285714</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="E93">
-        <v>0.4820659971305595</v>
+        <v>0.4310099573257468</v>
       </c>
       <c r="F93">
-        <v>0.4777070063694268</v>
+        <v>0.4183006535947713</v>
       </c>
       <c r="G93">
-        <v>0.4214765100671141</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="H93">
-        <v>0.39</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6180904522613065</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C94">
-        <v>0.4970414201183432</v>
+        <v>0.5138740661686233</v>
       </c>
       <c r="D94">
-        <v>0.4484848484848485</v>
+        <v>0.5388888888888889</v>
       </c>
       <c r="E94">
-        <v>0.4748603351955307</v>
+        <v>0.4400564174894217</v>
       </c>
       <c r="F94">
-        <v>0.4331210191082803</v>
+        <v>0.4421768707482993</v>
       </c>
       <c r="G94">
-        <v>0.4197860962566845</v>
+        <v>0.414021164021164</v>
       </c>
       <c r="H94">
-        <v>0.382</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.599009900990099</v>
+        <v>0.5706806282722513</v>
       </c>
       <c r="C95">
-        <v>0.5005302226935313</v>
+        <v>0.5142105263157895</v>
       </c>
       <c r="D95">
-        <v>0.4540229885057471</v>
+        <v>0.5260115606936416</v>
       </c>
       <c r="E95">
-        <v>0.4647302904564315</v>
+        <v>0.4287709497206704</v>
       </c>
       <c r="F95">
-        <v>0.4794520547945205</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="G95">
-        <v>0.4299065420560748</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="H95">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5959595959595959</v>
+        <v>0.5778894472361809</v>
       </c>
       <c r="C96">
-        <v>0.5089473684210526</v>
+        <v>0.5096909376636982</v>
       </c>
       <c r="D96">
-        <v>0.4685714285714286</v>
+        <v>0.5766871165644172</v>
       </c>
       <c r="E96">
-        <v>0.4576271186440678</v>
+        <v>0.4457142857142857</v>
       </c>
       <c r="F96">
-        <v>0.4822695035460993</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="G96">
-        <v>0.4232804232804233</v>
+        <v>0.4113009198423128</v>
       </c>
       <c r="H96">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.5990338164251208</v>
+        <v>0.6256410256410256</v>
       </c>
       <c r="C97">
-        <v>0.5130072840790842</v>
+        <v>0.5068205666316894</v>
       </c>
       <c r="D97">
-        <v>0.44</v>
+        <v>0.5625</v>
       </c>
       <c r="E97">
-        <v>0.4475524475524476</v>
+        <v>0.4436519258202568</v>
       </c>
       <c r="F97">
-        <v>0.4791666666666667</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="G97">
-        <v>0.4213263979193758</v>
+        <v>0.4050131926121372</v>
       </c>
       <c r="H97">
-        <v>0.396</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6076555023923444</v>
+        <v>0.5885416666666666</v>
       </c>
       <c r="C98">
-        <v>0.5086071987480438</v>
+        <v>0.5010449320794148</v>
       </c>
       <c r="D98">
-        <v>0.4171428571428571</v>
+        <v>0.5586592178770949</v>
       </c>
       <c r="E98">
-        <v>0.4360795454545455</v>
+        <v>0.4606580829756796</v>
       </c>
       <c r="F98">
-        <v>0.481203007518797</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="G98">
-        <v>0.4327176781002638</v>
+        <v>0.4063745019920319</v>
       </c>
       <c r="H98">
-        <v>0.384</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5786802030456852</v>
+        <v>0.5722222222222222</v>
       </c>
       <c r="C99">
-        <v>0.5059927045336112</v>
+        <v>0.508562532433835</v>
       </c>
       <c r="D99">
-        <v>0.4946236559139785</v>
+        <v>0.5029239766081871</v>
       </c>
       <c r="E99">
-        <v>0.442836468885673</v>
+        <v>0.4649499284692418</v>
       </c>
       <c r="F99">
-        <v>0.4899328859060403</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="G99">
-        <v>0.4312169312169312</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="H99">
-        <v>0.388</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.5428571428571428</v>
+        <v>0.5691489361702128</v>
       </c>
       <c r="C100">
-        <v>0.5113168724279835</v>
+        <v>0.5093956323006602</v>
       </c>
       <c r="D100">
-        <v>0.5052083333333334</v>
+        <v>0.4550561797752809</v>
       </c>
       <c r="E100">
-        <v>0.4359712230215828</v>
+        <v>0.473463687150838</v>
       </c>
       <c r="F100">
-        <v>0.4625850340136055</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="G100">
-        <v>0.4243641231593039</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="H100">
-        <v>0.392</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.57847533632287</v>
+        <v>0.5647668393782384</v>
       </c>
       <c r="C101">
-        <v>0.5110199897488468</v>
+        <v>0.5068842427332994</v>
       </c>
       <c r="D101">
-        <v>0.455026455026455</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="E101">
-        <v>0.438122332859175</v>
+        <v>0.4852320675105485</v>
       </c>
       <c r="F101">
-        <v>0.4407894736842105</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="G101">
-        <v>0.4328947368421053</v>
+        <v>0.3955321944809461</v>
       </c>
       <c r="H101">
-        <v>0.384</v>
+        <v>0.356</v>
       </c>
     </row>
   </sheetData>
